--- a/fish_growth_data2.xlsx
+++ b/fish_growth_data2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-Fishies\home\zac\GitHub\MSYfish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B77F49-E464-4B57-B658-B55E14C8C340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E31EDB-2F0E-4127-A485-79172F92A579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="187">
   <si>
     <t>order</t>
   </si>
@@ -536,6 +536,51 @@
   </si>
   <si>
     <t>Northern red snapper</t>
+  </si>
+  <si>
+    <t>Vermilion snapper</t>
+  </si>
+  <si>
+    <t>Yellowtail snapper</t>
+  </si>
+  <si>
+    <t>Patagonian toothfish</t>
+  </si>
+  <si>
+    <t>Bluefish</t>
+  </si>
+  <si>
+    <t>Red drum</t>
+  </si>
+  <si>
+    <t>Black sea bass</t>
+  </si>
+  <si>
+    <t>Red grouper</t>
+  </si>
+  <si>
+    <t>Snowy grouper</t>
+  </si>
+  <si>
+    <t>Yellowfin seabream</t>
+  </si>
+  <si>
+    <t>Blackspot seabream</t>
+  </si>
+  <si>
+    <t>Common seabream</t>
+  </si>
+  <si>
+    <t>Alaska plaice</t>
+  </si>
+  <si>
+    <t>American plaice</t>
+  </si>
+  <si>
+    <t>Arrowtooth flounder</t>
+  </si>
+  <si>
+    <t>Atlantic halibut</t>
   </si>
 </sst>
 </file>
@@ -930,8 +975,8 @@
   <dimension ref="A1:O82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2601,6 +2646,9 @@
       <c r="C36" t="s">
         <v>67</v>
       </c>
+      <c r="D36" t="s">
+        <v>172</v>
+      </c>
       <c r="E36" s="2">
         <v>0.14399999999999999</v>
       </c>
@@ -2645,6 +2693,9 @@
       <c r="C37" t="s">
         <v>68</v>
       </c>
+      <c r="D37" t="s">
+        <v>173</v>
+      </c>
       <c r="E37" s="2">
         <v>0.18868750000000001</v>
       </c>
@@ -2689,6 +2740,9 @@
       <c r="C38" t="s">
         <v>70</v>
       </c>
+      <c r="D38" t="s">
+        <v>174</v>
+      </c>
       <c r="E38" s="2">
         <v>9.2437500000000006E-2</v>
       </c>
@@ -2733,6 +2787,9 @@
       <c r="C39" t="s">
         <v>72</v>
       </c>
+      <c r="D39" t="s">
+        <v>175</v>
+      </c>
       <c r="E39" s="2">
         <v>0.17399999999999999</v>
       </c>
@@ -2777,6 +2834,9 @@
       <c r="C40" t="s">
         <v>74</v>
       </c>
+      <c r="D40" t="s">
+        <v>176</v>
+      </c>
       <c r="E40" s="2">
         <v>0.40235714285714302</v>
       </c>
@@ -2821,6 +2881,9 @@
       <c r="C41" t="s">
         <v>76</v>
       </c>
+      <c r="D41" t="s">
+        <v>177</v>
+      </c>
       <c r="E41" s="2">
         <v>0.29857142857142899</v>
       </c>
@@ -2865,6 +2928,9 @@
       <c r="C42" t="s">
         <v>77</v>
       </c>
+      <c r="D42" t="s">
+        <v>178</v>
+      </c>
       <c r="E42" s="2">
         <v>0.13825000000000001</v>
       </c>
@@ -2909,6 +2975,9 @@
       <c r="C43" t="s">
         <v>78</v>
       </c>
+      <c r="D43" t="s">
+        <v>179</v>
+      </c>
       <c r="E43" s="2">
         <v>9.1333333333333294E-2</v>
       </c>
@@ -2953,6 +3022,9 @@
       <c r="C44" t="s">
         <v>80</v>
       </c>
+      <c r="D44" t="s">
+        <v>180</v>
+      </c>
       <c r="E44" s="2">
         <v>0.28899999999999998</v>
       </c>
@@ -2997,6 +3069,9 @@
       <c r="C45" t="s">
         <v>81</v>
       </c>
+      <c r="D45" t="s">
+        <v>181</v>
+      </c>
       <c r="E45" s="2">
         <v>0.13682352941176501</v>
       </c>
@@ -3041,6 +3116,9 @@
       <c r="C46" t="s">
         <v>82</v>
       </c>
+      <c r="D46" t="s">
+        <v>182</v>
+      </c>
       <c r="E46" s="2">
         <v>0.18</v>
       </c>
@@ -3085,6 +3163,9 @@
       <c r="C47" t="s">
         <v>85</v>
       </c>
+      <c r="D47" t="s">
+        <v>183</v>
+      </c>
       <c r="E47" s="2">
         <v>0.14288888888888901</v>
       </c>
@@ -3129,6 +3210,9 @@
       <c r="C48" t="s">
         <v>86</v>
       </c>
+      <c r="D48" t="s">
+        <v>184</v>
+      </c>
       <c r="E48" s="2">
         <v>0.119615384615385</v>
       </c>
@@ -3173,6 +3257,9 @@
       <c r="C49" t="s">
         <v>87</v>
       </c>
+      <c r="D49" t="s">
+        <v>185</v>
+      </c>
       <c r="E49" s="2">
         <v>0.122</v>
       </c>
@@ -3216,6 +3303,9 @@
       </c>
       <c r="C50" t="s">
         <v>88</v>
+      </c>
+      <c r="D50" t="s">
+        <v>186</v>
       </c>
       <c r="E50" s="2">
         <v>8.0337500000000006E-2</v>

--- a/fish_growth_data2.xlsx
+++ b/fish_growth_data2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-Fishies\home\zac\GitHub\MSYfish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E31EDB-2F0E-4127-A485-79172F92A579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F74333A2-8B02-4E4E-8BB4-7D5EF137254E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="219">
   <si>
     <t>order</t>
   </si>
@@ -581,6 +581,102 @@
   </si>
   <si>
     <t>Atlantic halibut</t>
+  </si>
+  <si>
+    <t>Flathead sole</t>
+  </si>
+  <si>
+    <t>English sole</t>
+  </si>
+  <si>
+    <t>Greenland halibut</t>
+  </si>
+  <si>
+    <t>Northern rock sole</t>
+  </si>
+  <si>
+    <t>European plaice</t>
+  </si>
+  <si>
+    <t>Petrale sole</t>
+  </si>
+  <si>
+    <t>Rex sole</t>
+  </si>
+  <si>
+    <t>Starry flounder</t>
+  </si>
+  <si>
+    <t>Yellowfin sole</t>
+  </si>
+  <si>
+    <t>Common sole</t>
+  </si>
+  <si>
+    <t>Silver gemfish</t>
+  </si>
+  <si>
+    <t>Albacore</t>
+  </si>
+  <si>
+    <t>Bigeye tuna</t>
+  </si>
+  <si>
+    <t>Chub mackerel</t>
+  </si>
+  <si>
+    <t>Atlantic mackerel</t>
+  </si>
+  <si>
+    <t>Pacific bluefin tuna</t>
+  </si>
+  <si>
+    <t>Atlantic bluefin tuna</t>
+  </si>
+  <si>
+    <t>Skipjack tuna</t>
+  </si>
+  <si>
+    <t>Spanish mackerel</t>
+  </si>
+  <si>
+    <t>Yellowfin tuna</t>
+  </si>
+  <si>
+    <t>Fourspotted megrim</t>
+  </si>
+  <si>
+    <t>Megrim</t>
+  </si>
+  <si>
+    <t>Sablefish</t>
+  </si>
+  <si>
+    <t>Atka mackerel</t>
+  </si>
+  <si>
+    <t>Golden redfish</t>
+  </si>
+  <si>
+    <t>Pacific ocean perch</t>
+  </si>
+  <si>
+    <t>Rougheye rockfish</t>
+  </si>
+  <si>
+    <t>Shortraker rockfish</t>
+  </si>
+  <si>
+    <t>Shortspine channel rockfish</t>
+  </si>
+  <si>
+    <t>Spiny dogfish</t>
+  </si>
+  <si>
+    <t>Orange roughy</t>
+  </si>
+  <si>
+    <t>Blue cod</t>
   </si>
 </sst>
 </file>
@@ -641,7 +737,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -657,9 +753,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -976,7 +1069,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
+      <selection pane="bottomLeft" activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -985,10 +1078,10 @@
     <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.1796875" customWidth="1"/>
-    <col min="5" max="6" width="13.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="14" width="13.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.81640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.54296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="14" width="13.54296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.81640625" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3351,6 +3444,9 @@
       <c r="C51" t="s">
         <v>89</v>
       </c>
+      <c r="D51" t="s">
+        <v>187</v>
+      </c>
       <c r="E51" s="2">
         <v>0.154</v>
       </c>
@@ -3395,6 +3491,9 @@
       <c r="C52" t="s">
         <v>90</v>
       </c>
+      <c r="D52" t="s">
+        <v>188</v>
+      </c>
       <c r="E52" s="2">
         <v>0.29499999999999998</v>
       </c>
@@ -3439,6 +3538,9 @@
       <c r="C53" t="s">
         <v>91</v>
       </c>
+      <c r="D53" t="s">
+        <v>189</v>
+      </c>
       <c r="E53" s="2">
         <v>7.7600000000000002E-2</v>
       </c>
@@ -3483,6 +3585,9 @@
       <c r="C54" t="s">
         <v>92</v>
       </c>
+      <c r="D54" t="s">
+        <v>190</v>
+      </c>
       <c r="E54" s="2">
         <v>0.2485</v>
       </c>
@@ -3527,6 +3632,9 @@
       <c r="C55" t="s">
         <v>93</v>
       </c>
+      <c r="D55" t="s">
+        <v>191</v>
+      </c>
       <c r="E55" s="2">
         <v>0.14719230769230801</v>
       </c>
@@ -3571,6 +3679,9 @@
       <c r="C56" t="s">
         <v>94</v>
       </c>
+      <c r="D56" t="s">
+        <v>192</v>
+      </c>
       <c r="E56" s="2">
         <v>0.15566666666666701</v>
       </c>
@@ -3615,6 +3726,9 @@
       <c r="C57" t="s">
         <v>95</v>
       </c>
+      <c r="D57" t="s">
+        <v>193</v>
+      </c>
       <c r="E57" s="2">
         <v>0.26067499999999999</v>
       </c>
@@ -3659,6 +3773,9 @@
       <c r="C58" t="s">
         <v>96</v>
       </c>
+      <c r="D58" t="s">
+        <v>194</v>
+      </c>
       <c r="E58" s="2">
         <v>0.24133333333333301</v>
       </c>
@@ -3703,6 +3820,9 @@
       <c r="C59" t="s">
         <v>97</v>
       </c>
+      <c r="D59" t="s">
+        <v>195</v>
+      </c>
       <c r="E59" s="2">
         <v>0.13238461538461499</v>
       </c>
@@ -3747,6 +3867,9 @@
       <c r="C60" t="s">
         <v>99</v>
       </c>
+      <c r="D60" t="s">
+        <v>196</v>
+      </c>
       <c r="E60" s="2">
         <v>0.33842372881355898</v>
       </c>
@@ -3791,7 +3914,10 @@
       <c r="C61" t="s">
         <v>102</v>
       </c>
-      <c r="E61" s="6">
+      <c r="D61" t="s">
+        <v>197</v>
+      </c>
+      <c r="E61" s="2">
         <v>0.208230769230769</v>
       </c>
       <c r="F61" s="2">
@@ -3835,6 +3961,9 @@
       <c r="C62" t="s">
         <v>104</v>
       </c>
+      <c r="D62" t="s">
+        <v>198</v>
+      </c>
       <c r="E62" s="2">
         <v>0.19935</v>
       </c>
@@ -3879,6 +4008,9 @@
       <c r="C63" t="s">
         <v>105</v>
       </c>
+      <c r="D63" t="s">
+        <v>199</v>
+      </c>
       <c r="E63" s="2">
         <v>0.216230769230769</v>
       </c>
@@ -3923,6 +4055,9 @@
       <c r="C64" t="s">
         <v>106</v>
       </c>
+      <c r="D64" t="s">
+        <v>200</v>
+      </c>
       <c r="E64" s="2">
         <v>0.30715903225806501</v>
       </c>
@@ -3967,6 +4102,9 @@
       <c r="C65" t="s">
         <v>107</v>
       </c>
+      <c r="D65" t="s">
+        <v>201</v>
+      </c>
       <c r="E65" s="2">
         <v>0.34449999999999997</v>
       </c>
@@ -4011,6 +4149,9 @@
       <c r="C66" t="s">
         <v>108</v>
       </c>
+      <c r="D66" t="s">
+        <v>202</v>
+      </c>
       <c r="E66" s="2">
         <v>0.15725</v>
       </c>
@@ -4055,6 +4196,9 @@
       <c r="C67" t="s">
         <v>109</v>
       </c>
+      <c r="D67" t="s">
+        <v>203</v>
+      </c>
       <c r="E67" s="2">
         <v>0.114535714285714</v>
       </c>
@@ -4099,6 +4243,9 @@
       <c r="C68" t="s">
         <v>110</v>
       </c>
+      <c r="D68" t="s">
+        <v>204</v>
+      </c>
       <c r="E68" s="2">
         <v>0.58629508196721303</v>
       </c>
@@ -4143,6 +4290,9 @@
       <c r="C69" t="s">
         <v>111</v>
       </c>
+      <c r="D69" t="s">
+        <v>205</v>
+      </c>
       <c r="E69" s="2">
         <v>0.30325000000000002</v>
       </c>
@@ -4187,6 +4337,9 @@
       <c r="C70" t="s">
         <v>112</v>
       </c>
+      <c r="D70" t="s">
+        <v>206</v>
+      </c>
       <c r="E70" s="2">
         <v>0.400076923076923</v>
       </c>
@@ -4231,6 +4384,9 @@
       <c r="C71" t="s">
         <v>114</v>
       </c>
+      <c r="D71" t="s">
+        <v>207</v>
+      </c>
       <c r="E71" s="2">
         <v>0.18877777777777799</v>
       </c>
@@ -4275,6 +4431,9 @@
       <c r="C72" t="s">
         <v>115</v>
       </c>
+      <c r="D72" t="s">
+        <v>208</v>
+      </c>
       <c r="E72" s="2">
         <v>0.17403921568627501</v>
       </c>
@@ -4319,6 +4478,9 @@
       <c r="C73" t="s">
         <v>118</v>
       </c>
+      <c r="D73" t="s">
+        <v>209</v>
+      </c>
       <c r="E73" s="2">
         <v>0.247034482758621</v>
       </c>
@@ -4363,6 +4525,9 @@
       <c r="C74" t="s">
         <v>120</v>
       </c>
+      <c r="D74" t="s">
+        <v>210</v>
+      </c>
       <c r="E74" s="2">
         <v>0.50038461538461498</v>
       </c>
@@ -4407,6 +4572,9 @@
       <c r="C75" t="s">
         <v>122</v>
       </c>
+      <c r="D75" t="s">
+        <v>211</v>
+      </c>
       <c r="E75" s="2">
         <v>9.4728571428571398E-2</v>
       </c>
@@ -4451,6 +4619,9 @@
       <c r="C76" t="s">
         <v>123</v>
       </c>
+      <c r="D76" t="s">
+        <v>212</v>
+      </c>
       <c r="E76" s="2">
         <v>0.13292999999999999</v>
       </c>
@@ -4495,6 +4666,9 @@
       <c r="C77" t="s">
         <v>124</v>
       </c>
+      <c r="D77" t="s">
+        <v>213</v>
+      </c>
       <c r="E77" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -4539,6 +4713,9 @@
       <c r="C78" t="s">
         <v>125</v>
       </c>
+      <c r="D78" t="s">
+        <v>214</v>
+      </c>
       <c r="E78" s="2">
         <v>3.5000000000000003E-2</v>
       </c>
@@ -4583,6 +4760,9 @@
       <c r="C79" t="s">
         <v>126</v>
       </c>
+      <c r="D79" t="s">
+        <v>215</v>
+      </c>
       <c r="E79" s="2">
         <v>1.9949999999999999E-2</v>
       </c>
@@ -4627,6 +4807,9 @@
       <c r="C80" t="s">
         <v>129</v>
       </c>
+      <c r="D80" t="s">
+        <v>216</v>
+      </c>
       <c r="E80" s="2">
         <v>0.1145</v>
       </c>
@@ -4671,6 +4854,9 @@
       <c r="C81" t="s">
         <v>132</v>
       </c>
+      <c r="D81" t="s">
+        <v>217</v>
+      </c>
       <c r="E81" s="2">
         <v>5.9499999999999997E-2</v>
       </c>
@@ -4714,6 +4900,9 @@
       </c>
       <c r="C82" t="s">
         <v>135</v>
+      </c>
+      <c r="D82" t="s">
+        <v>218</v>
       </c>
       <c r="E82" s="2">
         <v>0.26400000000000001</v>

--- a/fish_growth_data2.xlsx
+++ b/fish_growth_data2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10511"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-Fishies\home\zac\GitHub\MSYfish\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bwoodson/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F74333A2-8B02-4E4E-8BB4-7D5EF137254E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E352F57E-E35A-3C4A-B0CB-8CB48D9EAFC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="47440" windowHeight="23920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fish_growth_data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="233">
   <si>
     <t>order</t>
   </si>
@@ -677,6 +677,48 @@
   </si>
   <si>
     <t>Blue cod</t>
+  </si>
+  <si>
+    <t>Decapoda</t>
+  </si>
+  <si>
+    <t>Palinuridae</t>
+  </si>
+  <si>
+    <t>Panulirus interruptus</t>
+  </si>
+  <si>
+    <t>Archaeogastropoda</t>
+  </si>
+  <si>
+    <t>Haliotidae</t>
+  </si>
+  <si>
+    <t>Haliotis corrugata</t>
+  </si>
+  <si>
+    <t>Haliotis fulgens</t>
+  </si>
+  <si>
+    <t>Trochidae</t>
+  </si>
+  <si>
+    <t>Turbinidae</t>
+  </si>
+  <si>
+    <t>Megastrea undosa</t>
+  </si>
+  <si>
+    <t>California spiny lobster</t>
+  </si>
+  <si>
+    <t>Pink abalone</t>
+  </si>
+  <si>
+    <t>Green abalone</t>
+  </si>
+  <si>
+    <t>Wavy turban snail</t>
   </si>
 </sst>
 </file>
@@ -737,7 +779,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -759,6 +801,12 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1065,26 +1113,26 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:O82"/>
+  <dimension ref="A1:O86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E76" sqref="E76"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L87" sqref="L87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.1796875" customWidth="1"/>
-    <col min="5" max="6" width="13.54296875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="14" width="13.54296875" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.81640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.1640625" customWidth="1"/>
+    <col min="5" max="6" width="13.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="14" width="13.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.83203125" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1131,7 +1179,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1178,7 +1226,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1225,7 +1273,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1272,7 +1320,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1319,7 +1367,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1366,7 +1414,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1413,7 +1461,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1460,7 +1508,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1507,7 +1555,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1554,7 +1602,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1601,7 +1649,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1648,7 +1696,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1695,7 +1743,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -1742,7 +1790,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -1789,7 +1837,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -1836,7 +1884,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -1883,7 +1931,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -1930,7 +1978,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -1977,7 +2025,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -2024,7 +2072,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -2071,7 +2119,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -2118,7 +2166,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -2165,7 +2213,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -2212,7 +2260,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -2259,7 +2307,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -2306,7 +2354,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -2353,7 +2401,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>49</v>
       </c>
@@ -2400,7 +2448,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>49</v>
       </c>
@@ -2447,7 +2495,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>49</v>
       </c>
@@ -2494,7 +2542,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>49</v>
       </c>
@@ -2541,7 +2589,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>56</v>
       </c>
@@ -2588,7 +2636,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>59</v>
       </c>
@@ -2635,7 +2683,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>62</v>
       </c>
@@ -2682,7 +2730,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>62</v>
       </c>
@@ -2729,7 +2777,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>62</v>
       </c>
@@ -2776,7 +2824,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>62</v>
       </c>
@@ -2823,7 +2871,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>62</v>
       </c>
@@ -2870,7 +2918,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>62</v>
       </c>
@@ -2917,7 +2965,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>62</v>
       </c>
@@ -2964,7 +3012,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>62</v>
       </c>
@@ -3011,7 +3059,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>62</v>
       </c>
@@ -3058,7 +3106,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>62</v>
       </c>
@@ -3105,7 +3153,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>62</v>
       </c>
@@ -3152,7 +3200,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>62</v>
       </c>
@@ -3199,7 +3247,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>62</v>
       </c>
@@ -3246,7 +3294,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>83</v>
       </c>
@@ -3293,7 +3341,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>83</v>
       </c>
@@ -3340,7 +3388,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>83</v>
       </c>
@@ -3387,7 +3435,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>83</v>
       </c>
@@ -3434,7 +3482,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>83</v>
       </c>
@@ -3481,7 +3529,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>83</v>
       </c>
@@ -3528,7 +3576,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>83</v>
       </c>
@@ -3575,7 +3623,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>83</v>
       </c>
@@ -3622,7 +3670,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>83</v>
       </c>
@@ -3669,7 +3717,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>83</v>
       </c>
@@ -3716,7 +3764,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>83</v>
       </c>
@@ -3763,7 +3811,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>83</v>
       </c>
@@ -3810,7 +3858,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>83</v>
       </c>
@@ -3857,7 +3905,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>83</v>
       </c>
@@ -3904,7 +3952,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>100</v>
       </c>
@@ -3951,7 +3999,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>100</v>
       </c>
@@ -3998,7 +4046,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>100</v>
       </c>
@@ -4045,7 +4093,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>100</v>
       </c>
@@ -4092,7 +4140,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>100</v>
       </c>
@@ -4139,7 +4187,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>100</v>
       </c>
@@ -4186,7 +4234,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>100</v>
       </c>
@@ -4233,7 +4281,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>100</v>
       </c>
@@ -4280,7 +4328,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>100</v>
       </c>
@@ -4327,7 +4375,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>100</v>
       </c>
@@ -4374,7 +4422,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>113</v>
       </c>
@@ -4421,7 +4469,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>113</v>
       </c>
@@ -4468,7 +4516,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>116</v>
       </c>
@@ -4515,7 +4563,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>116</v>
       </c>
@@ -4562,7 +4610,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>116</v>
       </c>
@@ -4609,7 +4657,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>116</v>
       </c>
@@ -4656,7 +4704,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>116</v>
       </c>
@@ -4703,7 +4751,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>116</v>
       </c>
@@ -4750,7 +4798,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>116</v>
       </c>
@@ -4797,7 +4845,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>127</v>
       </c>
@@ -4844,7 +4892,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>130</v>
       </c>
@@ -4891,7 +4939,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>133</v>
       </c>
@@ -4936,6 +4984,194 @@
       </c>
       <c r="O82" s="3">
         <v>17</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>219</v>
+      </c>
+      <c r="B83" t="s">
+        <v>220</v>
+      </c>
+      <c r="C83" t="s">
+        <v>221</v>
+      </c>
+      <c r="D83" t="s">
+        <v>229</v>
+      </c>
+      <c r="E83" s="8">
+        <v>0.1147</v>
+      </c>
+      <c r="F83" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="G83" s="8">
+        <v>43</v>
+      </c>
+      <c r="H83" s="8">
+        <v>3.24</v>
+      </c>
+      <c r="I83" s="8">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="J83" s="8">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="K83" s="8">
+        <v>2.4830000000000001</v>
+      </c>
+      <c r="L83" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="M83" s="8">
+        <v>-1.5</v>
+      </c>
+      <c r="N83" s="8">
+        <v>2</v>
+      </c>
+      <c r="O83" s="9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>222</v>
+      </c>
+      <c r="B84" t="s">
+        <v>223</v>
+      </c>
+      <c r="C84" t="s">
+        <v>224</v>
+      </c>
+      <c r="D84" t="s">
+        <v>230</v>
+      </c>
+      <c r="E84" s="8">
+        <v>0.11890000000000001</v>
+      </c>
+      <c r="F84" s="8">
+        <v>0.03</v>
+      </c>
+      <c r="G84" s="8">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="H84" s="8">
+        <v>1.7</v>
+      </c>
+      <c r="I84" s="8">
+        <v>4.36E-2</v>
+      </c>
+      <c r="J84" s="8">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K84" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="L84" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="M84" s="8">
+        <v>-1.5</v>
+      </c>
+      <c r="N84" s="8">
+        <v>2</v>
+      </c>
+      <c r="O84" s="9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>222</v>
+      </c>
+      <c r="B85" t="s">
+        <v>223</v>
+      </c>
+      <c r="C85" t="s">
+        <v>225</v>
+      </c>
+      <c r="D85" t="s">
+        <v>231</v>
+      </c>
+      <c r="E85" s="8">
+        <v>0.31</v>
+      </c>
+      <c r="F85" s="8">
+        <v>0.03</v>
+      </c>
+      <c r="G85" s="8">
+        <v>25</v>
+      </c>
+      <c r="H85" s="8">
+        <v>1.8</v>
+      </c>
+      <c r="I85" s="8">
+        <v>5.1310000000000001E-2</v>
+      </c>
+      <c r="J85" s="8">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K85" s="8">
+        <v>3.36</v>
+      </c>
+      <c r="L85" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="M85" s="8">
+        <v>-1.5</v>
+      </c>
+      <c r="N85" s="8">
+        <v>2</v>
+      </c>
+      <c r="O85" s="9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>226</v>
+      </c>
+      <c r="B86" t="s">
+        <v>227</v>
+      </c>
+      <c r="C86" t="s">
+        <v>228</v>
+      </c>
+      <c r="D86" t="s">
+        <v>232</v>
+      </c>
+      <c r="E86" s="8">
+        <v>0.245</v>
+      </c>
+      <c r="F86" s="8">
+        <v>2.4E-2</v>
+      </c>
+      <c r="G86" s="8">
+        <v>15</v>
+      </c>
+      <c r="H86" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="I86" s="8">
+        <v>4.3650000000000001E-2</v>
+      </c>
+      <c r="J86" s="8">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K86" s="8">
+        <v>2.84</v>
+      </c>
+      <c r="L86" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="M86" s="8">
+        <v>-1.5</v>
+      </c>
+      <c r="N86" s="8">
+        <v>2</v>
+      </c>
+      <c r="O86" s="7">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/fish_growth_data2.xlsx
+++ b/fish_growth_data2.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bwoodson/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bwoodson/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E352F57E-E35A-3C4A-B0CB-8CB48D9EAFC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B7EB2C-7802-8941-987B-180FD4AE2CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="47440" windowHeight="23920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fish_growth_data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1113,11 +1126,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:O86"/>
+  <dimension ref="A1:O88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L87" sqref="L87"/>
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M87" sqref="M87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5003,7 +5016,7 @@
         <v>0.1147</v>
       </c>
       <c r="F83" s="8">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="G83" s="8">
         <v>43</v>
@@ -5021,13 +5034,13 @@
         <v>2.4830000000000001</v>
       </c>
       <c r="L83" s="8">
-        <v>0.1</v>
+        <v>0.24</v>
       </c>
       <c r="M83" s="8">
-        <v>-1.5</v>
+        <v>-1.46</v>
       </c>
       <c r="N83" s="8">
-        <v>2</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="O83" s="9">
         <v>40</v>
@@ -5050,31 +5063,31 @@
         <v>0.11890000000000001</v>
       </c>
       <c r="F84" s="8">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="G84" s="8">
-        <v>17.600000000000001</v>
+        <v>30</v>
       </c>
       <c r="H84" s="8">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="I84" s="8">
         <v>4.36E-2</v>
       </c>
       <c r="J84" s="8">
-        <v>4.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="K84" s="8">
         <v>3.5</v>
       </c>
       <c r="L84" s="8">
-        <v>0.1</v>
+        <v>0.35</v>
       </c>
       <c r="M84" s="8">
-        <v>-1.5</v>
+        <v>-1.46</v>
       </c>
       <c r="N84" s="8">
-        <v>2</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="O84" s="9">
         <v>25</v>
@@ -5100,10 +5113,10 @@
         <v>0.03</v>
       </c>
       <c r="G85" s="8">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H85" s="8">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="I85" s="8">
         <v>5.1310000000000001E-2</v>
@@ -5115,13 +5128,13 @@
         <v>3.36</v>
       </c>
       <c r="L85" s="8">
-        <v>0.1</v>
+        <v>0.34</v>
       </c>
       <c r="M85" s="8">
-        <v>-1.5</v>
+        <v>-1.46</v>
       </c>
       <c r="N85" s="8">
-        <v>2</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="O85" s="9">
         <v>25</v>
@@ -5147,10 +5160,10 @@
         <v>2.4E-2</v>
       </c>
       <c r="G86" s="8">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H86" s="8">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="I86" s="8">
         <v>4.3650000000000001E-2</v>
@@ -5162,19 +5175,33 @@
         <v>2.84</v>
       </c>
       <c r="L86" s="8">
-        <v>0.1</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="M86" s="8">
-        <v>-1.5</v>
+        <v>-1.46</v>
       </c>
       <c r="N86" s="8">
-        <v>2</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="O86" s="7">
         <v>25</v>
       </c>
     </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2"/>
+      <c r="K88" s="2"/>
+      <c r="L88" s="2"/>
+      <c r="M88" s="2"/>
+      <c r="N88" s="2"/>
+      <c r="O88" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>